--- a/results_method1_and_2/method_entropies/KLd_JSd_interval_simplified.xlsx
+++ b/results_method1_and_2/method_entropies/KLd_JSd_interval_simplified.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="539" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{763E4DA6-083A-4709-A995-123D950C0FAC}"/>
+  <xr:revisionPtr revIDLastSave="815" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20E8EFF7-CABF-41B4-AE41-1F67B5A8BBED}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11340" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
   </bookViews>
   <sheets>
     <sheet name="KLd_JSd_interval" sheetId="1" r:id="rId1"/>
+    <sheet name="evaluation_interval" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="25">
+  <si>
+    <t>KLd: karykis -- pro-karykis</t>
+  </si>
+  <si>
+    <t>KLd: balasis -- karykis</t>
+  </si>
+  <si>
+    <t>KLd: balasis -- pro-karykis</t>
+  </si>
+  <si>
+    <t>KLd: pro-karykis -- karykis</t>
+  </si>
+  <si>
+    <t>KLd: karykis -- balasis</t>
+  </si>
+  <si>
+    <t>KLd: pro-karykis -- balasis</t>
+  </si>
   <si>
     <t>pro-karykis -- karykis</t>
   </si>
@@ -80,6 +99,18 @@
   <si>
     <t>scale</t>
   </si>
+  <si>
+    <t>evaluation_of_karykis</t>
+  </si>
+  <si>
+    <t>scale_of_evaluation</t>
+  </si>
+  <si>
+    <t>5-grams</t>
+  </si>
+  <si>
+    <t>case_study</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -131,11 +162,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,9 +195,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,7 +235,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -198,13 +267,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>echos_a (interval) </a:t>
+              <a:t>echos_a (interval)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -248,7 +312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -274,8 +338,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.2744397732690803E-2"/>
-                  <c:y val="2.906746698189689E-2"/>
+                  <c:x val="-0.10015184213084476"/>
+                  <c:y val="1.5667134330069457E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -296,8 +360,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1506555602944292E-2"/>
-                  <c:y val="-5.1334528929067223E-2"/>
+                  <c:x val="-5.5935258092738409E-2"/>
+                  <c:y val="4.246779963372424E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -318,8 +382,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.0582175452441534E-3"/>
-                  <c:y val="-6.0268084030285454E-2"/>
+                  <c:x val="2.7622990693432419E-2"/>
+                  <c:y val="-6.6667534229760484E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -395,7 +459,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$2:$A$4</c:f>
+              <c:f>KLd_JSd_interval!$M$2:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -412,7 +476,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$B$2:$B$4</c:f>
+              <c:f>KLd_JSd_interval!$N$2:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -440,7 +504,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -467,7 +531,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-5.0296469732621148E-2"/>
-                  <c:y val="6.0334909836160709E-2"/>
+                  <c:y val="5.586813228555159E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -488,8 +552,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8353715325226957E-2"/>
-                  <c:y val="3.8001022083115121E-2"/>
+                  <c:x val="-4.8527806065951577E-2"/>
+                  <c:y val="6.926846493737894E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -510,8 +574,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6071328751132734E-2"/>
-                  <c:y val="6.0334909836160792E-2"/>
+                  <c:x val="-4.8527806065951667E-2"/>
+                  <c:y val="6.4801687386769821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -587,7 +651,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$2:$A$4</c:f>
+              <c:f>KLd_JSd_interval!$M$2:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -604,7 +668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$C$2:$C$4</c:f>
+              <c:f>KLd_JSd_interval!$O$2:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -632,7 +696,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -658,8 +722,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10257030699196616"/>
-                  <c:y val="-4.6867751378458104E-2"/>
+                  <c:x val="-9.7670069019150402E-2"/>
+                  <c:y val="-4.2400973827848985E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -680,8 +744,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.0984283380770427E-2"/>
-                  <c:y val="2.906746698189689E-2"/>
+                  <c:x val="-4.1158374121495048E-2"/>
+                  <c:y val="-6.9201639131503734E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -702,8 +766,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.971172174881842E-3"/>
-                  <c:y val="-2.1999758723670131E-3"/>
+                  <c:x val="2.0253558748976063E-2"/>
+                  <c:y val="-5.5801306479676335E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -779,7 +843,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$2:$A$4</c:f>
+              <c:f>KLd_JSd_interval!$M$2:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -796,7 +860,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$D$2:$D$4</c:f>
+              <c:f>KLd_JSd_interval!$P$2:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1020,7 +1084,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1052,13 +1116,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>echos_b (interval) </a:t>
+              <a:t>echos_b (interval)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1102,7 +1161,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1128,8 +1187,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.0287937881672817E-2"/>
-                  <c:y val="2.9067466981896807E-2"/>
+                  <c:x val="-9.5200893461591135E-2"/>
+                  <c:y val="-2.4533863625412516E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1150,8 +1209,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5200893461591135E-2"/>
-                  <c:y val="3.3534244532506009E-2"/>
+                  <c:x val="-0.12467862694110102"/>
+                  <c:y val="-5.5801306479676335E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1172,8 +1231,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7797084876529895E-2"/>
-                  <c:y val="1.5667134330069537E-2"/>
+                  <c:x val="3.0582181367751361E-3"/>
+                  <c:y val="6.7335792288513033E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1249,7 +1308,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$8:$A$10</c:f>
+              <c:f>KLd_JSd_interval!$M$8:$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1266,7 +1325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$B$8:$B$10</c:f>
+              <c:f>KLd_JSd_interval!$N$8:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1294,7 +1353,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1320,8 +1379,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.2927046091260301E-2"/>
-                  <c:y val="5.1401354734942555E-2"/>
+                  <c:x val="-8.2918504511795374E-2"/>
+                  <c:y val="5.1401354734942478E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1343,7 +1402,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-4.6071337662408E-2"/>
-                  <c:y val="5.1401354734942395E-2"/>
+                  <c:y val="4.246779963372424E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1364,8 +1423,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0470568301301031E-2"/>
-                  <c:y val="5.586813228555159E-2"/>
+                  <c:x val="-4.8527815452367243E-2"/>
+                  <c:y val="4.2467799633724157E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1441,7 +1500,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$8:$A$10</c:f>
+              <c:f>KLd_JSd_interval!$M$8:$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1458,7 +1517,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$C$8:$C$10</c:f>
+              <c:f>KLd_JSd_interval!$O$8:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1486,7 +1545,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1512,8 +1571,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.0287937881672817E-2"/>
-                  <c:y val="-3.3467418726630754E-2"/>
+                  <c:x val="-9.5200893461591135E-2"/>
+                  <c:y val="-6.4734861580894573E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1534,8 +1593,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.2884129296611762E-2"/>
-                  <c:y val="-8.2601971783331077E-2"/>
+                  <c:x val="-3.3788948712612212E-2"/>
+                  <c:y val="-6.0268084030285454E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1556,8 +1615,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.271004045644821E-2"/>
-                  <c:y val="-3.7934196277239866E-2"/>
+                  <c:x val="-4.311215233102514E-3"/>
+                  <c:y val="-4.2400973827848985E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1633,7 +1692,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$8:$A$10</c:f>
+              <c:f>KLd_JSd_interval!$M$8:$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1650,7 +1709,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$D$8:$D$10</c:f>
+              <c:f>KLd_JSd_interval!$P$8:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1874,7 +1933,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1906,13 +1965,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>echos_c (interval) </a:t>
+              <a:t>echos_c (interval)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1956,7 +2010,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1982,8 +2036,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10004973598176956"/>
-                  <c:y val="1.120035677946042E-2"/>
+                  <c:x val="-9.268500409215133E-2"/>
+                  <c:y val="-1.5600308524194284E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2004,8 +2058,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6041833508366103E-2"/>
-                  <c:y val="3.8001022083115121E-2"/>
+                  <c:x val="-8.5448430057353947E-2"/>
+                  <c:y val="-5.13345289290673E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2026,8 +2080,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9879829517502983E-2"/>
-                  <c:y val="6.7335792288513033E-3"/>
+                  <c:x val="3.2515109258700034E-2"/>
+                  <c:y val="-4.6867751378458104E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2103,7 +2157,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$14:$A$16</c:f>
+              <c:f>KLd_JSd_interval!$M$14:$M$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2120,7 +2174,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$B$14:$B$16</c:f>
+              <c:f>KLd_JSd_interval!$N$14:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2148,7 +2202,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2174,8 +2228,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.0590880087185864E-2"/>
-                  <c:y val="6.4801687386769752E-2"/>
+                  <c:x val="-5.3406537158550878E-2"/>
+                  <c:y val="6.0334909836160709E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2196,8 +2250,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.1132024192602153E-2"/>
-                  <c:y val="6.0334909836160709E-2"/>
+                  <c:x val="-4.6041824608500773E-2"/>
+                  <c:y val="6.4801687386769821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2218,8 +2272,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.1132024192602153E-2"/>
-                  <c:y val="4.6934577184333359E-2"/>
+                  <c:x val="-3.3767303691750725E-2"/>
+                  <c:y val="8.2668797589206297E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2295,7 +2349,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$14:$A$16</c:f>
+              <c:f>KLd_JSd_interval!$M$14:$M$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2312,7 +2366,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$C$14:$C$16</c:f>
+              <c:f>KLd_JSd_interval!$O$14:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2340,7 +2394,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2366,8 +2420,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.463293473027074E-2"/>
-                  <c:y val="-4.6867751378458104E-2"/>
+                  <c:x val="-0.10742859920287742"/>
+                  <c:y val="4.6934577184333359E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2388,8 +2442,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.7605306228093117E-2"/>
-                  <c:y val="-6.0268084030285496E-2"/>
+                  <c:x val="-2.9024788568095747E-2"/>
+                  <c:y val="-6.9201639131503692E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2402,7 +2456,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-A60B-4D92-945C-2CAE749FE18F}"/>
+                  <c16:uniqueId val="{00000001-648D-4050-9910-4C5FA9AECD81}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2410,8 +2464,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.4789638833266934E-2"/>
-                  <c:y val="-4.2400973827849069E-2"/>
+                  <c:x val="-1.1673166041600472E-2"/>
+                  <c:y val="-0.10046908198576755"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2487,7 +2541,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$14:$A$16</c:f>
+              <c:f>KLd_JSd_interval!$M$14:$M$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2504,7 +2558,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$D$14:$D$16</c:f>
+              <c:f>KLd_JSd_interval!$P$14:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2728,7 +2782,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2760,13 +2814,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>echos_d (interval) </a:t>
+              <a:t>echos_d (interval)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2810,7 +2859,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2836,8 +2885,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.0348455572112948E-2"/>
-                  <c:y val="5.1401354734942478E-2"/>
+                  <c:x val="-9.0629032339483981E-2"/>
+                  <c:y val="1.120035677946042E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2858,8 +2907,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0850963923445106E-2"/>
-                  <c:y val="4.246779963372424E-2"/>
+                  <c:x val="-8.8163274340234993E-2"/>
+                  <c:y val="2.4600689431287771E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2880,8 +2929,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.0099635326613892E-2"/>
-                  <c:y val="2.2668016782421857E-3"/>
+                  <c:x val="-1.8617443665195884E-3"/>
+                  <c:y val="6.7335792288513033E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2957,7 +3006,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$20:$A$22</c:f>
+              <c:f>KLd_JSd_interval!$M$20:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2974,7 +3023,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$B$20:$B$22</c:f>
+              <c:f>KLd_JSd_interval!$N$20:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3002,7 +3051,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3028,8 +3077,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8560342403166819E-2"/>
-                  <c:y val="5.1401354734942395E-2"/>
+                  <c:x val="-5.1176904351499825E-2"/>
+                  <c:y val="6.4801687386769821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3050,8 +3099,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6102218099111185E-2"/>
-                  <c:y val="6.0334909836160543E-2"/>
+                  <c:x val="-4.8711146352250809E-2"/>
+                  <c:y val="7.8202020038597178E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3072,8 +3121,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.364409379505553E-2"/>
-                  <c:y val="7.3735242487987976E-2"/>
+                  <c:x val="-4.8711146352250809E-2"/>
+                  <c:y val="4.6934577184333276E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3149,7 +3198,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$20:$A$22</c:f>
+              <c:f>KLd_JSd_interval!$M$20:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3166,7 +3215,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$C$20:$C$22</c:f>
+              <c:f>KLd_JSd_interval!$O$20:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3194,7 +3243,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3217,33 +3266,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.5264704180224258E-2"/>
-                  <c:y val="-2.4533863625412475E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-0F6C-4C6C-B4EA-F608320551E3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.0602679820017947E-3"/>
-                  <c:y val="-4.6867751378458146E-2"/>
+                  <c:x val="-2.4053566359760692E-2"/>
+                  <c:y val="-4.2400973827848985E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3264,8 +3291,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.7641511022558421E-2"/>
-                  <c:y val="-6.0268084030285454E-2"/>
+                  <c:x val="3.7601838717681584E-3"/>
+                  <c:y val="-3.3467418726630754E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3341,7 +3368,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$20:$A$22</c:f>
+              <c:f>KLd_JSd_interval!$M$20:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3358,7 +3385,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$D$20:$D$22</c:f>
+              <c:f>KLd_JSd_interval!$P$20:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3582,7 +3609,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3614,13 +3641,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>echos_pla (interval) </a:t>
+              <a:t>echos_pla (interval)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3664,7 +3686,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3690,8 +3712,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10011382967714734"/>
-                  <c:y val="2.4600689431287771E-2"/>
+                  <c:x val="-4.1190434529017203E-2"/>
+                  <c:y val="6.0334909836160709E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3712,8 +3734,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.5340604119338377E-2"/>
-                  <c:y val="-6.0268084030285454E-2"/>
+                  <c:x val="-7.579858073296393E-2"/>
+                  <c:y val="-8.2601971783331118E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3727,6 +3749,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-A9C1-4880-B091-A7CDF70460D2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9807524059492558E-3"/>
+                  <c:y val="-3.3467418726630754E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A9C1-4880-B091-A7CDF70460D2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3789,7 +3833,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$26:$A$28</c:f>
+              <c:f>KLd_JSd_interval!$M$26:$M$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3806,7 +3850,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$B$26:$B$28</c:f>
+              <c:f>KLd_JSd_interval!$N$26:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3834,7 +3878,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3860,8 +3904,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10502678430678503"/>
-                  <c:y val="-3.3467418726630754E-2"/>
+                  <c:x val="-9.7960423049237397E-2"/>
+                  <c:y val="2.2668016782421449E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3882,8 +3926,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8353715325226957E-2"/>
-                  <c:y val="0.12286979554468835"/>
+                  <c:x val="-4.8678407686442209E-2"/>
+                  <c:y val="6.4801687386769821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3904,8 +3948,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7797081434157039E-2"/>
-                  <c:y val="7.8202020038597095E-2"/>
+                  <c:x val="-2.3966948575872459E-2"/>
+                  <c:y val="8.2668797589206297E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3981,7 +4025,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$26:$A$28</c:f>
+              <c:f>KLd_JSd_interval!$M$26:$M$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3998,7 +4042,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$C$26:$C$28</c:f>
+              <c:f>KLd_JSd_interval!$O$26:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4026,7 +4070,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4052,8 +4096,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.0462011158596553E-2"/>
-                  <c:y val="-0.10940263708698575"/>
+                  <c:x val="-9.304228638086906E-2"/>
+                  <c:y val="-6.0268084030285454E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4074,8 +4118,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.5374965788234253E-2"/>
-                  <c:y val="-0.11386941463759487"/>
+                  <c:x val="2.275026732769506E-2"/>
+                  <c:y val="-0.13620330239064043"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4096,8 +4140,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5166513378613753E-2"/>
-                  <c:y val="1.5667134330069537E-2"/>
+                  <c:x val="1.1134830368426168E-2"/>
+                  <c:y val="-0.10046908198576751"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4173,7 +4217,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$26:$A$28</c:f>
+              <c:f>KLd_JSd_interval!$M$26:$M$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4190,7 +4234,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$D$26:$D$28</c:f>
+              <c:f>KLd_JSd_interval!$P$26:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4414,7 +4458,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4446,13 +4490,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>echos_plb (interval) </a:t>
+              <a:t>echos_plb (interval)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4496,7 +4535,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4537,6 +4576,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-6D9F-4FEE-AB4B-DA29305F995E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1142498531726067E-2"/>
+                  <c:y val="2.9067466981896807E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6D9F-4FEE-AB4B-DA29305F995E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0460008719422421E-2"/>
+                  <c:y val="-5.5801306479676335E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6D9F-4FEE-AB4B-DA29305F995E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4599,7 +4682,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$32:$A$34</c:f>
+              <c:f>KLd_JSd_interval!$M$32:$M$34</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4616,7 +4699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$B$32:$B$34</c:f>
+              <c:f>KLd_JSd_interval!$N$32:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4644,7 +4727,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4667,11 +4750,55 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3606598821772017E-2"/>
+                  <c:y val="4.6934577184333276E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6D9F-4FEE-AB4B-DA29305F995E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1301322010582585E-2"/>
+                  <c:y val="6.926846493737894E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6D9F-4FEE-AB4B-DA29305F995E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8678398241680208E-2"/>
-                  <c:y val="6.0334909836160792E-2"/>
+                  <c:x val="-4.3765536738462785E-2"/>
+                  <c:y val="6.926846493737894E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4747,7 +4874,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$32:$A$34</c:f>
+              <c:f>KLd_JSd_interval!$M$32:$M$34</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4764,7 +4891,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$C$32:$C$34</c:f>
+              <c:f>KLd_JSd_interval!$O$32:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4792,7 +4919,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4814,6 +4941,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8104002882415294E-2"/>
+                  <c:y val="-4.2400973827848985E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-6D9F-4FEE-AB4B-DA29305F995E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1573295051174706E-2"/>
+                  <c:y val="-5.5801306479676335E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-6D9F-4FEE-AB4B-DA29305F995E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7852309589560262E-2"/>
+                  <c:y val="-2.1999758723669311E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-6D9F-4FEE-AB4B-DA29305F995E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4873,7 +5066,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$32:$A$34</c:f>
+              <c:f>KLd_JSd_interval!$M$32:$M$34</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4890,7 +5083,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$D$32:$D$34</c:f>
+              <c:f>KLd_JSd_interval!$P$32:$P$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5114,7 +5307,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5146,13 +5339,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>echos_plc (interval) </a:t>
+              <a:t>echos_plc (interval)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5196,7 +5384,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5244,8 +5432,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.9699448149030885E-2"/>
-                  <c:y val="6.0334909836160709E-2"/>
+                  <c:x val="-4.3739055004108462E-2"/>
+                  <c:y val="6.926846493737894E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5266,8 +5454,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.2334734175384962E-2"/>
-                  <c:y val="-4.2400973827848985E-2"/>
+                  <c:x val="-2.8958218726892821E-2"/>
+                  <c:y val="4.6934577184333276E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5343,7 +5531,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$38:$A$40</c:f>
+              <c:f>KLd_JSd_interval!$M$38:$M$40</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5360,7 +5548,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$B$38:$B$40</c:f>
+              <c:f>KLd_JSd_interval!$N$38:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5388,7 +5576,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5414,8 +5602,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10181726733544455"/>
-                  <c:y val="-3.3467418726630754E-2"/>
+                  <c:x val="-4.8666000429846895E-2"/>
+                  <c:y val="7.8202020038597178E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5436,8 +5624,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3947691587428335E-2"/>
-                  <c:y val="0.13180335064590651"/>
+                  <c:x val="-6.7869643110694882E-3"/>
+                  <c:y val="-8.2601971783331077E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5458,8 +5646,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5150401570211142E-2"/>
-                  <c:y val="3.3534244532506009E-2"/>
+                  <c:x val="1.5384290104753843E-2"/>
+                  <c:y val="-2.1999758723669311E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5535,7 +5723,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$38:$A$40</c:f>
+              <c:f>KLd_JSd_interval!$M$38:$M$40</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5552,7 +5740,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$C$38:$C$40</c:f>
+              <c:f>KLd_JSd_interval!$O$38:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5580,7 +5768,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5603,11 +5791,55 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10039892740010133"/>
+                  <c:y val="-2.0067086074803443E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-128A-4046-A6FA-AE5A4DC3003D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8373782132801056E-2"/>
+                  <c:y val="-9.6002304435158392E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-128A-4046-A6FA-AE5A4DC3003D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3586928850484041E-2"/>
-                  <c:y val="-0.14513685749185867"/>
+                  <c:x val="5.5303992532766263E-3"/>
+                  <c:y val="-4.6867751378458146E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5683,7 +5915,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$38:$A$40</c:f>
+              <c:f>KLd_JSd_interval!$M$38:$M$40</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5700,7 +5932,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$D$38:$D$40</c:f>
+              <c:f>KLd_JSd_interval!$P$38:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5924,7 +6156,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5956,13 +6188,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>echos_pld (interval) </a:t>
+              <a:t>echos_pld (interval)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>simplified</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6006,7 +6233,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$B$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6032,8 +6259,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11022755297141881"/>
-                  <c:y val="6.7335792288513033E-3"/>
+                  <c:x val="-9.3032221512957869E-2"/>
+                  <c:y val="1.120035677946042E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6054,8 +6281,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.779708143415722E-2"/>
-                  <c:y val="-7.813519423272193E-2"/>
+                  <c:x val="-6.8391213831560285E-2"/>
+                  <c:y val="1.5667134330069537E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6076,8 +6303,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0253558748976063E-2"/>
-                  <c:y val="-2.1999758723669311E-3"/>
+                  <c:x val="3.0677084444927349E-3"/>
+                  <c:y val="2.2668016782421857E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6153,7 +6380,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$44:$A$46</c:f>
+              <c:f>KLd_JSd_interval!$M$44:$M$46</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6170,7 +6397,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$B$44:$B$46</c:f>
+              <c:f>KLd_JSd_interval!$N$44:$N$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6198,7 +6425,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$C$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6224,8 +6451,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6071328751132734E-2"/>
-                  <c:y val="7.8202020038597095E-2"/>
+                  <c:x val="-5.1142508454581945E-2"/>
+                  <c:y val="5.5868132285551514E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6246,8 +6473,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8701896806676205E-2"/>
-                  <c:y val="7.8202020038597178E-2"/>
+                  <c:x val="-4.6214306918302445E-2"/>
+                  <c:y val="5.5868132285551514E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6268,8 +6495,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8701896806676295E-2"/>
-                  <c:y val="8.266879758920638E-2"/>
+                  <c:x val="-4.3060257935083647E-2"/>
+                  <c:y val="6.4801687386769821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6345,7 +6572,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$44:$A$46</c:f>
+              <c:f>KLd_JSd_interval!$M$44:$M$46</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6362,7 +6589,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$C$44:$C$46</c:f>
+              <c:f>KLd_JSd_interval!$O$44:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6390,7 +6617,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$D$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6416,8 +6643,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.2744397732690803E-2"/>
-                  <c:y val="-8.2601971783331035E-2"/>
+                  <c:x val="-9.0568120744818112E-2"/>
+                  <c:y val="-3.3467418726630754E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6438,8 +6665,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.7657352362328476E-2"/>
-                  <c:y val="-7.813519423272193E-2"/>
+                  <c:x val="3.7576566595718675E-3"/>
+                  <c:y val="-9.1535526884549273E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6460,8 +6687,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.1629186045274439E-2"/>
-                  <c:y val="-5.1334528929067223E-2"/>
+                  <c:x val="7.9959099807722523E-3"/>
+                  <c:y val="-3.7934196277239866E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6537,7 +6764,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$A$44:$A$46</c:f>
+              <c:f>KLd_JSd_interval!$M$44:$M$46</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6554,7 +6781,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$D$44:$D$46</c:f>
+              <c:f>KLd_JSd_interval!$P$44:$P$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6740,6 +6967,394 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>case_study (interval)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KLd_JSd_interval!$N$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pro-karykis -- karykis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>KLd_JSd_interval!$M$51:$M$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2-grams</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-grams</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KLd_JSd_interval!$N$51:$N$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FC6-40A0-9714-5FAE5D2AF666}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2046771727"/>
+        <c:axId val="2046778799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2046771727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046778799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2046778799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046771727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -7095,6 +7710,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -11223,17 +11878,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>183273</xdr:rowOff>
@@ -11263,13 +12434,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>60247</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>326947</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>181843</xdr:rowOff>
@@ -11301,13 +12472,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
@@ -11339,13 +12510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>86591</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>349827</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
@@ -11377,13 +12548,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>307731</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>153865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>574431</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>139578</xdr:rowOff>
@@ -11415,13 +12586,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>389965</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>153801</xdr:rowOff>
@@ -11453,13 +12624,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
@@ -11491,13 +12662,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
@@ -11527,11 +12698,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519544</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>242453</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Γράφημα 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC85A56-26E1-4F4B-8C80-EF67D94B9516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11827,522 +13034,1751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09DDCF-466C-41F8-A5D5-C312E834D36F}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.79</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12.02</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20.11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11.84</v>
+      </c>
+      <c r="H3" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45.55</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32.49</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44.52</v>
+      </c>
+      <c r="G4" s="1">
+        <v>32.19</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43.81</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.217</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>68.89</v>
+      </c>
+      <c r="D5" s="1">
+        <v>52.03</v>
+      </c>
+      <c r="E5" s="1">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="F5" s="1">
+        <v>67.67</v>
+      </c>
+      <c r="G5" s="1">
+        <v>52.17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>66.209999999999994</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14.07</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13.46</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H9" s="1">
+        <v>16.03</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="M9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.189</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40.08</v>
+      </c>
+      <c r="D10" s="1">
+        <v>24.43</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1">
+        <v>39.69</v>
+      </c>
+      <c r="G10" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43.43</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="M10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="E11" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44.16</v>
+      </c>
+      <c r="H11" s="1">
+        <v>66.42</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="M11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.27800000000000002</v>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="M14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.68</v>
+      </c>
+      <c r="E15" s="1">
+        <v>19.22</v>
+      </c>
+      <c r="F15" s="1">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="H15" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="M15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.188</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>47.22</v>
+      </c>
+      <c r="D16" s="1">
+        <v>25.34</v>
+      </c>
+      <c r="E16" s="1">
+        <v>49.83</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45.76</v>
+      </c>
+      <c r="G16" s="1">
+        <v>26.02</v>
+      </c>
+      <c r="H16" s="1">
+        <v>48.19</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="M16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>69.55</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>73.48</v>
+      </c>
+      <c r="F17" s="1">
+        <v>69.37</v>
+      </c>
+      <c r="G17" s="1">
+        <v>41.75</v>
+      </c>
+      <c r="H17" s="1">
+        <v>72.88</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.151</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.192</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.248</v>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="M20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.183</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>17.82</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10.14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>23.22</v>
+      </c>
+      <c r="F21" s="1">
+        <v>17.38</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>23.17</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.193</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>46.45</v>
+      </c>
+      <c r="D22" s="1">
+        <v>29.56</v>
+      </c>
+      <c r="E22" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>46.77</v>
+      </c>
+      <c r="G22" s="1">
+        <v>29.48</v>
+      </c>
+      <c r="H22" s="1">
+        <v>56.66</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="M22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>69.959999999999994</v>
+      </c>
+      <c r="D23" s="1">
+        <v>49.08</v>
+      </c>
+      <c r="E23" s="1">
+        <v>78.959999999999994</v>
+      </c>
+      <c r="F23" s="1">
+        <v>72.010000000000005</v>
+      </c>
+      <c r="G23" s="1">
+        <v>48.81</v>
+      </c>
+      <c r="H23" s="1">
+        <v>81.36</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="M23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.217</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="O25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6.12</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5.53</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="M26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.317</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>19.21</v>
+      </c>
+      <c r="D27" s="1">
+        <v>18.52</v>
+      </c>
+      <c r="E27" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>20.16</v>
+      </c>
+      <c r="G27" s="1">
+        <v>16.829999999999998</v>
+      </c>
+      <c r="H27" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="M27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45.05</v>
+      </c>
+      <c r="D28" s="1">
+        <v>36.78</v>
+      </c>
+      <c r="E28" s="1">
+        <v>47.95</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45.91</v>
+      </c>
+      <c r="G28" s="1">
+        <v>35.75</v>
+      </c>
+      <c r="H28" s="1">
+        <v>46.91</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="M28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
+        <v>62.78</v>
+      </c>
+      <c r="D29" s="1">
+        <v>54.26</v>
+      </c>
+      <c r="E29" s="1">
+        <v>63.96</v>
+      </c>
+      <c r="F29" s="1">
+        <v>62.52</v>
+      </c>
+      <c r="G29" s="1">
+        <v>53.93</v>
+      </c>
+      <c r="H29" s="1">
+        <v>62.78</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="M29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1">
+        <v>17.77</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="E33" s="1">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="F33" s="1">
+        <v>17.43</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8.94</v>
+      </c>
+      <c r="H33" s="1">
+        <v>16.86</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="M33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>41.31</v>
+      </c>
+      <c r="D34" s="1">
+        <v>26.03</v>
+      </c>
+      <c r="E34" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>40.22</v>
+      </c>
+      <c r="G34" s="1">
+        <v>26.57</v>
+      </c>
+      <c r="H34" s="1">
+        <v>41.25</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="M34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
+        <v>61.53</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="E35" s="1">
+        <v>61.88</v>
+      </c>
+      <c r="F35" s="1">
+        <v>60.11</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45.81</v>
+      </c>
+      <c r="H35" s="1">
+        <v>60.45</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="M35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="M38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.214</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <v>15.92</v>
+      </c>
+      <c r="D39" s="1">
+        <v>15.43</v>
+      </c>
+      <c r="E39" s="1">
+        <v>21.24</v>
+      </c>
+      <c r="F39" s="1">
+        <v>15.88</v>
+      </c>
+      <c r="G39" s="1">
+        <v>15.75</v>
+      </c>
+      <c r="H39" s="1">
+        <v>20.37</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="M39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44.54</v>
+      </c>
+      <c r="D40" s="1">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="E40" s="1">
+        <v>49.74</v>
+      </c>
+      <c r="F40" s="1">
+        <v>43.14</v>
+      </c>
+      <c r="G40" s="1">
+        <v>35.18</v>
+      </c>
+      <c r="H40" s="1">
+        <v>48.63</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="M40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1">
+        <v>64.78</v>
+      </c>
+      <c r="D41" s="1">
+        <v>56.21</v>
+      </c>
+      <c r="E41" s="1">
+        <v>73.78</v>
+      </c>
+      <c r="F41" s="1">
+        <v>65.14</v>
+      </c>
+      <c r="G41" s="1">
+        <v>53.9</v>
+      </c>
+      <c r="H41" s="1">
+        <v>73.02</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="M41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.183</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="R42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="M44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1">
+        <v>14.65</v>
+      </c>
+      <c r="D45" s="1">
+        <v>12.59</v>
+      </c>
+      <c r="E45" s="1">
+        <v>19.52</v>
+      </c>
+      <c r="F45" s="1">
+        <v>15.55</v>
+      </c>
+      <c r="G45" s="1">
+        <v>11.79</v>
+      </c>
+      <c r="H45" s="1">
+        <v>19.38</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="M45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1">
+        <v>37.22</v>
+      </c>
+      <c r="D46" s="1">
+        <v>34.49</v>
+      </c>
+      <c r="E46" s="1">
+        <v>47.23</v>
+      </c>
+      <c r="F46" s="1">
+        <v>38.69</v>
+      </c>
+      <c r="G46" s="1">
+        <v>33.06</v>
+      </c>
+      <c r="H46" s="1">
+        <v>47.46</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="M46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.188</v>
+      </c>
+      <c r="O46" s="1">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.21199999999999999</v>
+      <c r="P46" s="1">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="D47" s="1">
+        <v>57.05</v>
+      </c>
+      <c r="E47" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="F47" s="1">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="G47" s="1">
+        <v>56.08</v>
+      </c>
+      <c r="H47" s="1">
+        <v>73.959999999999994</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M50" s="1"/>
+      <c r="N50" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
+      <c r="F51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.23799999999999999</v>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.189</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.25800000000000001</v>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="F53" s="1">
+        <v>11.65</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.215</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.219</v>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1">
+        <v>27.02</v>
+      </c>
+      <c r="F54" s="1">
+        <v>28.47</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.188</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.27700000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.183</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.193</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.29099999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.317</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.29199999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.218</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.27100000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.184</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.20899999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.214</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <v>0.22</v>
-      </c>
-      <c r="C44">
-        <v>0.182</v>
-      </c>
-      <c r="D44">
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="C45">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="D45">
-        <v>0.251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46">
-        <v>0.188</v>
-      </c>
-      <c r="C46">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="D46">
-        <v>0.2</v>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1">
+        <v>35.81</v>
+      </c>
+      <c r="F55" s="1">
+        <v>37.049999999999997</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F42:P42"/>
+  <mergeCells count="10">
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="R42:AB42"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A44:A47"/>
   </mergeCells>
-  <conditionalFormatting sqref="F43:K43 B2:D4 B8:D10 B14:D16 B20:D22 B26:D28 B32:D34 B38:D40 B44:D46">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="R43:W43 N2:P4 N8:P10 N14:P16 N20:P22 N26:P28 N32:P34 N38:P40 N44:P46">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12353,8 +14789,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:K43 B44:D46 B38:D40 B32:D34 B26:D28 B20:D22 B14:D16 B8:D10 B2:D4">
+  <conditionalFormatting sqref="R43:W43 N44:P46 N38:P40 N32:P34 N26:P28 N20:P22 N14:P16 N8:P10 N2:P4">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:P16 R43:W43">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N51:N54 R43:W43">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12368,4 +14828,825 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BF8126-54B6-4FA0-BA66-713989B713E4}">
+  <dimension ref="A1:T51"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <f>ROUND(B3/C3,3)</f>
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F4" s="5">
+        <f>ROUND(B4/C4,3)</f>
+        <v>1.286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <f>ROUND(B5/C5,3)</f>
+        <v>1.2270000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <f>ROUND(B9/C9,3)</f>
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.183</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F10" s="5">
+        <f>ROUND(B10/C10,3)</f>
+        <v>1.1910000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <f>ROUND(B11/C11,3)</f>
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F15" s="5">
+        <f>ROUND(B15/C15,3)</f>
+        <v>1.1459999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F16" s="5">
+        <f>ROUND(B16/C16,3)</f>
+        <v>1.2270000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <f>ROUND(B17/C17,3)</f>
+        <v>1.2789999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F21" s="5">
+        <f>ROUND(B21/C21,3)</f>
+        <v>1.663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F22" s="5">
+        <f>ROUND(B22/C22,3)</f>
+        <v>1.333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="5">
+        <f>ROUND(B23/C23,3)</f>
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F27" s="5">
+        <f>ROUND(B27/C27,3)</f>
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F28" s="5">
+        <f>ROUND(B28/C28,3)</f>
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="5">
+        <f>ROUND(B29/C29,3)</f>
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="F33" s="5">
+        <f>ROUND(B33/C33,3)</f>
+        <v>1.4550000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="F34" s="5">
+        <f>ROUND(B34/C34,3)</f>
+        <v>1.2829999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="F35" s="5">
+        <f>ROUND(B35/C35,3)</f>
+        <v>1.2490000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.254</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.314</v>
+      </c>
+      <c r="F39" s="5">
+        <f>ROUND(B39/C39,3)</f>
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.317</v>
+      </c>
+      <c r="F40" s="5">
+        <f>ROUND(B40/C40,3)</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F41" s="5">
+        <f>ROUND(B41/C41,3)</f>
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="F45" s="5">
+        <f>ROUND(B45/C45,3)</f>
+        <v>1.6080000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.214</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F46" s="5">
+        <f>ROUND(B46/C46,3)</f>
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F47" s="5">
+        <f>ROUND(B47/C47,3)</f>
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="H2:T2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:D5 B9:D11 B15:D17 B21:D23 B27:D29 B33:D35 B39:D41 B45:D47">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51 B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5 F9:F11 F15:F17 F21:F23 F27:F29 F33:F35 F39:F41 F45:F47">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3 F3:F5 F9:F11 F15:F17 F21:F23 F27:F29 F33:F35 F39:F41 F45:F47">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>